--- a/Epi.Web/Content/Text/Survey.xlsx
+++ b/Epi.Web/Content/Text/Survey.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vwm5\Source\Repos\MyRepo\EIWSSandbox\Epi.Web\Content\Text\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CDC\Workspace\Epi Info Web Survey\Epi.Web\Content\Text\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -106,12 +106,6 @@
     <t>pregnant</t>
   </si>
   <si>
-    <t>Then_Question</t>
-  </si>
-  <si>
-    <t>Else_Question</t>
-  </si>
-  <si>
     <t>When did symptoms start?</t>
   </si>
   <si>
@@ -152,6 +146,12 @@
   </si>
   <si>
     <t>Title</t>
+  </si>
+  <si>
+    <t>Then_Goto</t>
+  </si>
+  <si>
+    <t>Else_Goto</t>
   </si>
 </sst>
 </file>
@@ -481,7 +481,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>15</v>
@@ -522,10 +522,10 @@
         <v>21</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -533,10 +533,10 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D2" t="s">
         <v>16</v>
@@ -553,10 +553,10 @@
         <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
@@ -576,7 +576,7 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D4" t="s">
         <v>19</v>
@@ -597,7 +597,7 @@
         <v>24</v>
       </c>
       <c r="J4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -605,10 +605,10 @@
         <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D5" t="s">
         <v>24</v>
@@ -622,19 +622,19 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" t="s">
         <v>27</v>
-      </c>
-      <c r="B6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" t="s">
-        <v>29</v>
       </c>
       <c r="F6" t="b">
         <v>1</v>
@@ -740,7 +740,7 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/Epi.Web/Content/Text/Survey.xlsx
+++ b/Epi.Web/Content/Text/Survey.xlsx
@@ -9,12 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18108" windowHeight="7680"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12432"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
-    <sheet name="DataTypes" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="5" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
+    <sheet name="DataTypes" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="Datatypes">DataTypes!$A$1:$A$6</definedName>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="63">
   <si>
     <t>Question</t>
   </si>
@@ -85,73 +87,139 @@
     <t>What is the patient's age?</t>
   </si>
   <si>
+    <t>sex</t>
+  </si>
+  <si>
+    <t>Sheet3</t>
+  </si>
+  <si>
+    <t>If_Condition</t>
+  </si>
+  <si>
+    <t>What is the patient's sex?</t>
+  </si>
+  <si>
+    <t>Is the patient pregnant?</t>
+  </si>
+  <si>
+    <t>pregnant</t>
+  </si>
+  <si>
+    <t>When did symptoms start?</t>
+  </si>
+  <si>
+    <t>onset_date</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Patient</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Pregnant</t>
+  </si>
+  <si>
+    <t>Please enter Age ….</t>
+  </si>
+  <si>
+    <t>Please enter Name….</t>
+  </si>
+  <si>
+    <t>Please enter Sex….</t>
+  </si>
+  <si>
+    <t>Please enter Pregnant...</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Then_Goto</t>
+  </si>
+  <si>
+    <t>Else_Goto</t>
+  </si>
+  <si>
+    <t>What time did the symptoms start?</t>
+  </si>
+  <si>
+    <t>Symptoms Date</t>
+  </si>
+  <si>
+    <t>Please enter symptoms date…</t>
+  </si>
+  <si>
+    <t>Symptoms Time</t>
+  </si>
+  <si>
+    <t>Please enter symptoms time…</t>
+  </si>
+  <si>
+    <t>onse_time</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Foods Eaten</t>
+  </si>
+  <si>
+    <t>eaten_foods</t>
+  </si>
+  <si>
+    <t>Sheet2</t>
+  </si>
+  <si>
+    <t>Fresh celery</t>
+  </si>
+  <si>
+    <t>Grapes</t>
+  </si>
+  <si>
+    <t>Peaches</t>
+  </si>
+  <si>
+    <t>Apple juice</t>
+  </si>
+  <si>
+    <t>Orange juice</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Sheet4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Don't know </t>
+  </si>
+  <si>
+    <t>Select eaten foods:</t>
+  </si>
+  <si>
+    <t>Please select eaten foods…</t>
+  </si>
+  <si>
+    <t>Was patient hospitalized?</t>
+  </si>
+  <si>
+    <t>Hospitalization</t>
+  </si>
+  <si>
+    <t>hospitalized</t>
+  </si>
+  <si>
     <t>age</t>
-  </si>
-  <si>
-    <t>sex</t>
-  </si>
-  <si>
-    <t>Sheet3</t>
-  </si>
-  <si>
-    <t>If_Condition</t>
-  </si>
-  <si>
-    <t>What is the patient's sex?</t>
-  </si>
-  <si>
-    <t>Is the patient pregnant?</t>
-  </si>
-  <si>
-    <t>pregnant</t>
-  </si>
-  <si>
-    <t>When did symptoms start?</t>
-  </si>
-  <si>
-    <t>onset_date</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Patient</t>
-  </si>
-  <si>
-    <t>Age</t>
-  </si>
-  <si>
-    <t>Pregnant</t>
-  </si>
-  <si>
-    <t>symptoms</t>
-  </si>
-  <si>
-    <t>Please enter Age ….</t>
-  </si>
-  <si>
-    <t>Please enter Name….</t>
-  </si>
-  <si>
-    <t>Please enter Sex….</t>
-  </si>
-  <si>
-    <t>Please enter Pregnant...</t>
-  </si>
-  <si>
-    <t>Please enter symptoms…</t>
-  </si>
-  <si>
-    <t>Title</t>
-  </si>
-  <si>
-    <t>Then_Goto</t>
-  </si>
-  <si>
-    <t>Else_Goto</t>
   </si>
 </sst>
 </file>
@@ -478,16 +546,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="26.109375" customWidth="1"/>
+    <col min="1" max="1" width="31.6640625" customWidth="1"/>
+    <col min="2" max="2" width="26.109375" customWidth="1"/>
+    <col min="3" max="3" width="33.44140625" customWidth="1"/>
     <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.5546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
@@ -501,10 +570,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>15</v>
@@ -519,13 +588,13 @@
         <v>2</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -533,10 +602,10 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D2" t="s">
         <v>16</v>
@@ -553,13 +622,13 @@
         <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="E3" t="s">
         <v>5</v>
@@ -570,16 +639,16 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>
@@ -588,30 +657,30 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H4" t="s">
         <v>12</v>
       </c>
       <c r="I4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
-      </c>
-      <c r="B5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
       </c>
       <c r="E5" t="s">
         <v>6</v>
@@ -622,22 +691,85 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" t="s">
         <v>25</v>
       </c>
-      <c r="B6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>26</v>
-      </c>
-      <c r="E6" t="s">
-        <v>27</v>
       </c>
       <c r="F6" t="b">
         <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -665,6 +797,77 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -698,12 +901,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -740,7 +943,12 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/Epi.Web/Content/Text/Survey.xlsx
+++ b/Epi.Web/Content/Text/Survey.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="63">
   <si>
     <t>Question</t>
   </si>
@@ -549,7 +549,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -662,11 +662,11 @@
       <c r="H4" t="s">
         <v>12</v>
       </c>
-      <c r="I4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" t="s">
-        <v>25</v>
+      <c r="I4">
+        <v>4</v>
+      </c>
+      <c r="J4">
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">

--- a/Epi.Web/Content/Text/Survey.xlsx
+++ b/Epi.Web/Content/Text/Survey.xlsx
@@ -162,9 +162,6 @@
     <t>Please enter symptoms time…</t>
   </si>
   <si>
-    <t>onse_time</t>
-  </si>
-  <si>
     <t>Time</t>
   </si>
   <si>
@@ -220,6 +217,9 @@
   </si>
   <si>
     <t>age</t>
+  </si>
+  <si>
+    <t>onset_time</t>
   </si>
 </sst>
 </file>
@@ -549,7 +549,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -628,7 +628,7 @@
         <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E3" t="s">
         <v>5</v>
@@ -720,10 +720,10 @@
         <v>42</v>
       </c>
       <c r="D7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7" t="s">
         <v>43</v>
-      </c>
-      <c r="E7" t="s">
-        <v>44</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
@@ -731,16 +731,16 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" t="s">
         <v>57</v>
       </c>
-      <c r="B8" t="s">
+      <c r="D8" t="s">
         <v>45</v>
-      </c>
-      <c r="C8" t="s">
-        <v>58</v>
-      </c>
-      <c r="D8" t="s">
-        <v>46</v>
       </c>
       <c r="E8" t="s">
         <v>7</v>
@@ -749,18 +749,18 @@
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" t="s">
         <v>59</v>
       </c>
-      <c r="B9" t="s">
+      <c r="D9" t="s">
         <v>60</v>
-      </c>
-      <c r="D9" t="s">
-        <v>61</v>
       </c>
       <c r="E9" t="s">
         <v>8</v>
@@ -769,7 +769,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -807,17 +807,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -837,27 +837,27 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -948,7 +948,7 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
